--- a/Stats/2022_MixedMasters_Stats.xlsx
+++ b/Stats/2022_MixedMasters_Stats.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="36">
   <si>
     <t>DPP</t>
   </si>
@@ -25,6 +25,18 @@
   </si>
   <si>
     <t>PP</t>
+  </si>
+  <si>
+    <t>D%</t>
+  </si>
+  <si>
+    <t>D%AA</t>
+  </si>
+  <si>
+    <t>O%</t>
+  </si>
+  <si>
+    <t>O%AA</t>
   </si>
   <si>
     <t>G</t>
@@ -469,13 +481,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q17"/>
+  <dimension ref="A1:U17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:21">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -524,10 +536,22 @@
       <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21">
       <c r="A2" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B2">
         <v>6</v>
@@ -539,16 +563,16 @@
         <v>18</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>33.33333333333334</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>-3.030303030303031</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>66.66666666666667</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>3.030303030303038</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -563,24 +587,36 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>-0.44</v>
+        <v>0</v>
       </c>
       <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>-4.9383</v>
+      </c>
+      <c r="R2">
         <v>4</v>
       </c>
-      <c r="O2">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="P2">
-        <v>-1.14</v>
-      </c>
-      <c r="Q2">
-        <v>-1.59</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="S2">
+        <v>33.33333333333334</v>
+      </c>
+      <c r="T2">
+        <v>-8.1633</v>
+      </c>
+      <c r="U2">
+        <v>-13.1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B3">
         <v>8</v>
@@ -592,48 +628,60 @@
         <v>23</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>34.78260869565217</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>-1.581027667984195</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>65.21739130434783</v>
       </c>
       <c r="H3">
+        <v>1.581027667984195</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
         <v>0.04347826086956522</v>
       </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3">
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
         <v>0.04347826086956522</v>
       </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3">
-        <v>0.125</v>
-      </c>
-      <c r="M3">
-        <v>-0.11</v>
-      </c>
-      <c r="N3">
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <v>12.5</v>
+      </c>
+      <c r="Q3">
+        <v>-1.2346</v>
+      </c>
+      <c r="R3">
         <v>6</v>
       </c>
-      <c r="O3">
-        <v>0.4</v>
-      </c>
-      <c r="P3">
-        <v>-0.43</v>
-      </c>
-      <c r="Q3">
-        <v>-0.54</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="S3">
+        <v>40</v>
+      </c>
+      <c r="T3">
+        <v>-3.0612</v>
+      </c>
+      <c r="U3">
+        <v>-4.3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21">
       <c r="A4" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B4">
         <v>7</v>
@@ -645,48 +693,60 @@
         <v>23</v>
       </c>
       <c r="E4">
+        <v>30.43478260869565</v>
+      </c>
+      <c r="F4">
+        <v>-5.928853754940715</v>
+      </c>
+      <c r="G4">
+        <v>69.56521739130434</v>
+      </c>
+      <c r="H4">
+        <v>5.928853754940711</v>
+      </c>
+      <c r="I4">
         <v>6</v>
       </c>
-      <c r="F4">
+      <c r="J4">
         <v>0.2608695652173913</v>
       </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4">
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
         <v>0.04347826086956522</v>
       </c>
-      <c r="I4">
+      <c r="M4">
         <v>7</v>
       </c>
-      <c r="J4">
+      <c r="N4">
         <v>0.3043478260869565</v>
       </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>0.1428571428571428</v>
-      </c>
-      <c r="M4">
-        <v>0.33</v>
-      </c>
-      <c r="N4">
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <v>14.28571428571429</v>
+      </c>
+      <c r="Q4">
+        <v>3.7037</v>
+      </c>
+      <c r="R4">
         <v>8</v>
       </c>
-      <c r="O4">
-        <v>0.5</v>
-      </c>
-      <c r="P4">
-        <v>1.14</v>
-      </c>
-      <c r="Q4">
-        <v>1.48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="S4">
+        <v>50</v>
+      </c>
+      <c r="T4">
+        <v>8.1633</v>
+      </c>
+      <c r="U4">
+        <v>11.87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B5">
         <v>8</v>
@@ -698,48 +758,60 @@
         <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>36.36363636363637</v>
       </c>
       <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>63.63636363636363</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
         <v>0.04545454545454546</v>
       </c>
-      <c r="G5">
+      <c r="K5">
         <v>3</v>
       </c>
-      <c r="H5">
+      <c r="L5">
         <v>0.1363636363636364</v>
       </c>
-      <c r="I5">
+      <c r="M5">
         <v>4</v>
       </c>
-      <c r="J5">
+      <c r="N5">
         <v>0.1818181818181818</v>
       </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>0.125</v>
-      </c>
-      <c r="M5">
-        <v>-0.11</v>
-      </c>
-      <c r="N5">
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <v>12.5</v>
+      </c>
+      <c r="Q5">
+        <v>-1.2346</v>
+      </c>
+      <c r="R5">
         <v>8</v>
       </c>
-      <c r="O5">
-        <v>0.5714285714285714</v>
-      </c>
-      <c r="P5">
-        <v>2</v>
-      </c>
-      <c r="Q5">
-        <v>1.89</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="S5">
+        <v>57.14285714285715</v>
+      </c>
+      <c r="T5">
+        <v>14.2857</v>
+      </c>
+      <c r="U5">
+        <v>13.05</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21">
       <c r="A6" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B6">
         <v>10</v>
@@ -751,16 +823,16 @@
         <v>16</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>62.5</v>
       </c>
       <c r="F6">
-        <v>0.0625</v>
+        <v>26.13636363636363</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>37.5</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>-26.13636363636363</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -769,30 +841,42 @@
         <v>0.0625</v>
       </c>
       <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <v>0.0625</v>
+      </c>
+      <c r="O6">
         <v>2</v>
       </c>
-      <c r="L6">
-        <v>0.2</v>
-      </c>
-      <c r="M6">
-        <v>0.89</v>
-      </c>
-      <c r="N6">
+      <c r="P6">
+        <v>20</v>
+      </c>
+      <c r="Q6">
+        <v>9.8765</v>
+      </c>
+      <c r="R6">
         <v>3</v>
       </c>
-      <c r="O6">
-        <v>0.5</v>
-      </c>
-      <c r="P6">
-        <v>0.43</v>
-      </c>
-      <c r="Q6">
-        <v>1.32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="S6">
+        <v>50</v>
+      </c>
+      <c r="T6">
+        <v>3.0612</v>
+      </c>
+      <c r="U6">
+        <v>12.94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21">
       <c r="A7" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B7">
         <v>10</v>
@@ -804,48 +888,60 @@
         <v>26</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>38.46153846153846</v>
       </c>
       <c r="F7">
+        <v>2.097902097902093</v>
+      </c>
+      <c r="G7">
+        <v>61.53846153846154</v>
+      </c>
+      <c r="H7">
+        <v>-2.097902097902093</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
         <v>0.03846153846153846</v>
       </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7">
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
         <v>0.03846153846153846</v>
       </c>
-      <c r="I7">
+      <c r="M7">
         <v>2</v>
       </c>
-      <c r="J7">
+      <c r="N7">
         <v>0.07692307692307693</v>
       </c>
-      <c r="K7">
+      <c r="O7">
         <v>2</v>
       </c>
-      <c r="L7">
-        <v>0.2</v>
-      </c>
-      <c r="M7">
-        <v>0.44</v>
-      </c>
-      <c r="N7">
+      <c r="P7">
+        <v>20</v>
+      </c>
+      <c r="Q7">
+        <v>4.9383</v>
+      </c>
+      <c r="R7">
         <v>7</v>
       </c>
-      <c r="O7">
-        <v>0.4375</v>
-      </c>
-      <c r="P7">
-        <v>0.14</v>
-      </c>
-      <c r="Q7">
-        <v>0.59</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="S7">
+        <v>43.75</v>
+      </c>
+      <c r="T7">
+        <v>1.0204</v>
+      </c>
+      <c r="U7">
+        <v>5.96</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21">
       <c r="A8" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B8">
         <v>10</v>
@@ -857,16 +953,16 @@
         <v>27</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>37.03703703703704</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>0.6734006734006712</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>62.96296296296296</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>-0.6734006734006712</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -875,30 +971,42 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>-0.11</v>
+        <v>0</v>
       </c>
       <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>1</v>
+      </c>
+      <c r="P8">
+        <v>10</v>
+      </c>
+      <c r="Q8">
+        <v>-1.2346</v>
+      </c>
+      <c r="R8">
         <v>6</v>
       </c>
-      <c r="O8">
-        <v>0.3529411764705883</v>
-      </c>
-      <c r="P8">
-        <v>-1.29</v>
-      </c>
-      <c r="Q8">
-        <v>-1.4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="S8">
+        <v>35.29411764705883</v>
+      </c>
+      <c r="T8">
+        <v>-9.1837</v>
+      </c>
+      <c r="U8">
+        <v>-10.42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21">
       <c r="A9" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B9">
         <v>7</v>
@@ -910,16 +1018,16 @@
         <v>19</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>36.8421052631579</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>0.4784688995215305</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>63.1578947368421</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>-0.4784688995215305</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -928,30 +1036,42 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0.1428571428571428</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>1</v>
+      </c>
+      <c r="P9">
+        <v>14.28571428571429</v>
+      </c>
+      <c r="Q9">
+        <v>3.7037</v>
+      </c>
+      <c r="R9">
         <v>3</v>
       </c>
-      <c r="O9">
-        <v>0.25</v>
-      </c>
-      <c r="P9">
-        <v>-2.14</v>
-      </c>
-      <c r="Q9">
-        <v>-1.81</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="S9">
+        <v>25</v>
+      </c>
+      <c r="T9">
+        <v>-15.3061</v>
+      </c>
+      <c r="U9">
+        <v>-11.6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21">
       <c r="A10" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B10">
         <v>7</v>
@@ -963,48 +1083,60 @@
         <v>14</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="F10">
+        <v>13.63636363636363</v>
+      </c>
+      <c r="G10">
+        <v>50</v>
+      </c>
+      <c r="H10">
+        <v>-13.63636363636363</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
         <v>0.07142857142857142</v>
       </c>
-      <c r="G10">
+      <c r="K10">
         <v>3</v>
       </c>
-      <c r="H10">
+      <c r="L10">
         <v>0.2142857142857143</v>
       </c>
-      <c r="I10">
+      <c r="M10">
         <v>4</v>
       </c>
-      <c r="J10">
+      <c r="N10">
         <v>0.2857142857142857</v>
       </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>0.1428571428571428</v>
-      </c>
-      <c r="M10">
-        <v>0.11</v>
-      </c>
-      <c r="N10">
+      <c r="O10">
+        <v>1</v>
+      </c>
+      <c r="P10">
+        <v>14.28571428571429</v>
+      </c>
+      <c r="Q10">
+        <v>1.2346</v>
+      </c>
+      <c r="R10">
         <v>5</v>
       </c>
-      <c r="O10">
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="P10">
-        <v>2</v>
-      </c>
-      <c r="Q10">
-        <v>2.11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="S10">
+        <v>71.42857142857143</v>
+      </c>
+      <c r="T10">
+        <v>14.2857</v>
+      </c>
+      <c r="U10">
+        <v>15.52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21">
       <c r="A11" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B11">
         <v>6</v>
@@ -1016,48 +1148,60 @@
         <v>24</v>
       </c>
       <c r="E11">
+        <v>25</v>
+      </c>
+      <c r="F11">
+        <v>-11.36363636363637</v>
+      </c>
+      <c r="G11">
+        <v>75</v>
+      </c>
+      <c r="H11">
+        <v>11.36363636363637</v>
+      </c>
+      <c r="I11">
         <v>4</v>
       </c>
-      <c r="F11">
+      <c r="J11">
         <v>0.1666666666666667</v>
       </c>
-      <c r="G11">
+      <c r="K11">
         <v>4</v>
       </c>
-      <c r="H11">
+      <c r="L11">
         <v>0.1666666666666667</v>
       </c>
-      <c r="I11">
+      <c r="M11">
         <v>8</v>
       </c>
-      <c r="J11">
+      <c r="N11">
         <v>0.3333333333333333</v>
       </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-      <c r="M11">
-        <v>-0.67</v>
-      </c>
-      <c r="N11">
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>-7.4074</v>
+      </c>
+      <c r="R11">
         <v>9</v>
       </c>
-      <c r="O11">
-        <v>0.5</v>
-      </c>
-      <c r="P11">
-        <v>1.29</v>
-      </c>
-      <c r="Q11">
-        <v>0.62</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="S11">
+        <v>50</v>
+      </c>
+      <c r="T11">
+        <v>9.1837</v>
+      </c>
+      <c r="U11">
+        <v>1.78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21">
       <c r="A12" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B12">
         <v>12</v>
@@ -1069,16 +1213,16 @@
         <v>27</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>44.44444444444444</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>8.080808080808076</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>-8.080808080808076</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -1087,30 +1231,42 @@
         <v>0</v>
       </c>
       <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
         <v>2</v>
       </c>
-      <c r="L12">
-        <v>0.1666666666666667</v>
-      </c>
-      <c r="M12">
-        <v>0.67</v>
-      </c>
-      <c r="N12">
+      <c r="P12">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="Q12">
+        <v>7.4074</v>
+      </c>
+      <c r="R12">
         <v>7</v>
       </c>
-      <c r="O12">
-        <v>0.4666666666666667</v>
-      </c>
-      <c r="P12">
-        <v>0.57</v>
-      </c>
-      <c r="Q12">
-        <v>1.24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="S12">
+        <v>46.66666666666666</v>
+      </c>
+      <c r="T12">
+        <v>4.0816</v>
+      </c>
+      <c r="U12">
+        <v>11.49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21">
       <c r="A13" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B13">
         <v>7</v>
@@ -1122,16 +1278,16 @@
         <v>22</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>31.81818181818182</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>-4.54545454545455</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>68.18181818181819</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>4.545454545454554</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -1146,24 +1302,36 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>-1.11</v>
+        <v>0</v>
       </c>
       <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>-12.3457</v>
+      </c>
+      <c r="R13">
         <v>6</v>
       </c>
-      <c r="O13">
-        <v>0.4</v>
-      </c>
-      <c r="P13">
-        <v>-0.43</v>
-      </c>
-      <c r="Q13">
-        <v>-1.54</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="S13">
+        <v>40</v>
+      </c>
+      <c r="T13">
+        <v>-3.0612</v>
+      </c>
+      <c r="U13">
+        <v>-15.41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21">
       <c r="A14" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B14">
         <v>5</v>
@@ -1175,16 +1343,16 @@
         <v>14</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>35.71428571428572</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>-0.6493506493506516</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>64.28571428571429</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.6493506493506587</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1199,24 +1367,36 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>-0.67</v>
+        <v>0</v>
       </c>
       <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>-7.4074</v>
+      </c>
+      <c r="R14">
         <v>4</v>
       </c>
-      <c r="O14">
-        <v>0.4444444444444444</v>
-      </c>
-      <c r="P14">
-        <v>0.14</v>
-      </c>
-      <c r="Q14">
-        <v>-0.52</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="S14">
+        <v>44.44444444444444</v>
+      </c>
+      <c r="T14">
+        <v>1.0204</v>
+      </c>
+      <c r="U14">
+        <v>-6.39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21">
       <c r="A15" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B15">
         <v>7</v>
@@ -1228,48 +1408,60 @@
         <v>17</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>41.1764705882353</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>4.81283422459893</v>
       </c>
       <c r="G15">
-        <v>1</v>
+        <v>58.8235294117647</v>
       </c>
       <c r="H15">
+        <v>-4.81283422459893</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
         <v>0.05882352941176471</v>
       </c>
-      <c r="I15">
-        <v>1</v>
-      </c>
-      <c r="J15">
+      <c r="M15">
+        <v>1</v>
+      </c>
+      <c r="N15">
         <v>0.05882352941176471</v>
       </c>
-      <c r="K15">
+      <c r="O15">
         <v>2</v>
       </c>
-      <c r="L15">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="M15">
-        <v>0.89</v>
-      </c>
-      <c r="N15">
+      <c r="P15">
+        <v>28.57142857142857</v>
+      </c>
+      <c r="Q15">
+        <v>9.8765</v>
+      </c>
+      <c r="R15">
         <v>2</v>
       </c>
-      <c r="O15">
-        <v>0.2</v>
-      </c>
-      <c r="P15">
-        <v>-2.29</v>
-      </c>
-      <c r="Q15">
-        <v>-1.4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="S15">
+        <v>20</v>
+      </c>
+      <c r="T15">
+        <v>-16.3265</v>
+      </c>
+      <c r="U15">
+        <v>-6.45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21">
       <c r="A16" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B16">
         <v>2</v>
@@ -1281,16 +1473,16 @@
         <v>16</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>-23.86363636363637</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>87.5</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>23.86363636363637</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1305,24 +1497,36 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>-0.44</v>
+        <v>0</v>
       </c>
       <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>-4.9383</v>
+      </c>
+      <c r="R16">
         <v>6</v>
       </c>
-      <c r="O16">
-        <v>0.4285714285714285</v>
-      </c>
-      <c r="P16">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>-0.44</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+      <c r="S16">
+        <v>42.85714285714285</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>-4.94</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B17">
         <v>16</v>
@@ -1334,18 +1538,30 @@
         <v>44</v>
       </c>
       <c r="E17">
+        <v>36.69389495521321</v>
+      </c>
+      <c r="F17">
+        <v>4.953878873652688</v>
+      </c>
+      <c r="G17">
+        <v>63.30610504478679</v>
+      </c>
+      <c r="H17">
+        <v>-4.953878873652677</v>
+      </c>
+      <c r="I17">
         <v>14</v>
       </c>
-      <c r="G17">
+      <c r="K17">
         <v>14</v>
       </c>
-      <c r="I17">
+      <c r="M17">
         <v>28</v>
       </c>
-      <c r="K17">
+      <c r="O17">
         <v>2</v>
       </c>
-      <c r="N17">
+      <c r="R17">
         <v>12</v>
       </c>
     </row>
@@ -1356,13 +1572,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q17"/>
+  <dimension ref="A1:U17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:21">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1411,10 +1627,22 @@
       <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21">
       <c r="A2" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B2">
         <v>4</v>
@@ -1426,16 +1654,16 @@
         <v>11</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>36.36363636363637</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>3.030303030303031</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>63.63636363636363</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>-3.030303030303038</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -1453,21 +1681,33 @@
         <v>0</v>
       </c>
       <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
         <v>2</v>
       </c>
-      <c r="O2">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="P2">
-        <v>-1</v>
-      </c>
-      <c r="Q2">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="S2">
+        <v>28.57142857142857</v>
+      </c>
+      <c r="T2">
+        <v>-7.142857142857141</v>
+      </c>
+      <c r="U2">
+        <v>-7.142857142857141</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B3">
         <v>3</v>
@@ -1479,48 +1719,60 @@
         <v>11</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>-6.060606060606062</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>72.72727272727273</v>
       </c>
       <c r="H3">
+        <v>6.060606060606062</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
         <v>0.09090909090909091</v>
       </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3">
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
         <v>0.09090909090909091</v>
       </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
         <v>3</v>
       </c>
-      <c r="O3">
-        <v>0.375</v>
-      </c>
-      <c r="P3">
-        <v>-0.4285714285714284</v>
-      </c>
-      <c r="Q3">
-        <v>-0.4285714285714284</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="S3">
+        <v>37.5</v>
+      </c>
+      <c r="T3">
+        <v>-3.061224489795916</v>
+      </c>
+      <c r="U3">
+        <v>-3.061224489795916</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21">
       <c r="A4" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B4">
         <v>4</v>
@@ -1532,48 +1784,60 @@
         <v>12</v>
       </c>
       <c r="E4">
+        <v>33.33333333333334</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>66.66666666666667</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
         <v>2</v>
       </c>
-      <c r="F4">
+      <c r="J4">
         <v>0.1666666666666667</v>
       </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4">
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
         <v>0.08333333333333333</v>
       </c>
-      <c r="I4">
+      <c r="M4">
         <v>3</v>
       </c>
-      <c r="J4">
+      <c r="N4">
         <v>0.25</v>
       </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
         <v>4</v>
       </c>
-      <c r="O4">
-        <v>0.5</v>
-      </c>
-      <c r="P4">
-        <v>0.5714285714285716</v>
-      </c>
-      <c r="Q4">
-        <v>0.5714285714285716</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="S4">
+        <v>50</v>
+      </c>
+      <c r="T4">
+        <v>4.081632653061226</v>
+      </c>
+      <c r="U4">
+        <v>4.081632653061226</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B5">
         <v>3</v>
@@ -1585,16 +1849,16 @@
         <v>11</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="F5">
-        <v>0.09090909090909091</v>
+        <v>-6.060606060606062</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>72.72727272727273</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>6.060606060606062</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -1609,24 +1873,36 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N5">
+        <v>0.09090909090909091</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
         <v>4</v>
       </c>
-      <c r="O5">
-        <v>0.5</v>
-      </c>
-      <c r="P5">
-        <v>0.5714285714285716</v>
-      </c>
-      <c r="Q5">
-        <v>0.5714285714285716</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="S5">
+        <v>50</v>
+      </c>
+      <c r="T5">
+        <v>4.081632653061226</v>
+      </c>
+      <c r="U5">
+        <v>4.081632653061226</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21">
       <c r="A6" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -1638,16 +1914,16 @@
         <v>6</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>83.33333333333333</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>49.99999999999999</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>16.66666666666667</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -1671,15 +1947,27 @@
         <v>0</v>
       </c>
       <c r="P6">
-        <v>-0.4285714285714285</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>-0.4285714285714285</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>-3.061224489795918</v>
+      </c>
+      <c r="U6">
+        <v>-3.061224489795918</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21">
       <c r="A7" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B7">
         <v>3</v>
@@ -1691,48 +1979,60 @@
         <v>12</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>-8.333333333333336</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>75</v>
       </c>
       <c r="H7">
+        <v>8.333333333333329</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
         <v>0.08333333333333333</v>
       </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7">
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7">
         <v>0.08333333333333333</v>
       </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7">
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
         <v>4</v>
       </c>
-      <c r="O7">
-        <v>0.4444444444444444</v>
-      </c>
-      <c r="P7">
-        <v>0.1428571428571428</v>
-      </c>
-      <c r="Q7">
-        <v>0.1428571428571428</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="S7">
+        <v>44.44444444444444</v>
+      </c>
+      <c r="T7">
+        <v>1.020408163265307</v>
+      </c>
+      <c r="U7">
+        <v>1.020408163265307</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21">
       <c r="A8" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B8">
         <v>5</v>
@@ -1744,16 +2044,16 @@
         <v>11</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>45.45454545454545</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>12.12121212121212</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>54.54545454545455</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>-12.12121212121212</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -1771,21 +2071,33 @@
         <v>0</v>
       </c>
       <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
         <v>2</v>
       </c>
-      <c r="O8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="P8">
-        <v>-0.5714285714285714</v>
-      </c>
-      <c r="Q8">
-        <v>-0.5714285714285714</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="S8">
+        <v>33.33333333333334</v>
+      </c>
+      <c r="T8">
+        <v>-4.081632653061222</v>
+      </c>
+      <c r="U8">
+        <v>-4.081632653061222</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21">
       <c r="A9" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B9">
         <v>4</v>
@@ -1797,16 +2109,16 @@
         <v>10</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>6.666666666666664</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>-6.666666666666671</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -1824,21 +2136,33 @@
         <v>0</v>
       </c>
       <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
         <v>2</v>
       </c>
-      <c r="O9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="P9">
-        <v>-0.5714285714285714</v>
-      </c>
-      <c r="Q9">
-        <v>-0.5714285714285714</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="S9">
+        <v>33.33333333333334</v>
+      </c>
+      <c r="T9">
+        <v>-4.081632653061222</v>
+      </c>
+      <c r="U9">
+        <v>-4.081632653061222</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21">
       <c r="A10" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B10">
         <v>3</v>
@@ -1850,48 +2174,60 @@
         <v>7</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>9.523809523809518</v>
       </c>
       <c r="G10">
+        <v>57.14285714285715</v>
+      </c>
+      <c r="H10">
+        <v>-9.523809523809526</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
         <v>2</v>
       </c>
-      <c r="H10">
+      <c r="L10">
         <v>0.2857142857142857</v>
       </c>
-      <c r="I10">
+      <c r="M10">
         <v>2</v>
       </c>
-      <c r="J10">
+      <c r="N10">
         <v>0.2857142857142857</v>
       </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-      <c r="N10">
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
         <v>4</v>
       </c>
-      <c r="O10">
-        <v>1</v>
-      </c>
-      <c r="P10">
-        <v>2.285714285714286</v>
-      </c>
-      <c r="Q10">
-        <v>2.285714285714286</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="S10">
+        <v>100</v>
+      </c>
+      <c r="T10">
+        <v>16.3265306122449</v>
+      </c>
+      <c r="U10">
+        <v>16.3265306122449</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21">
       <c r="A11" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B11">
         <v>3</v>
@@ -1903,48 +2239,60 @@
         <v>11</v>
       </c>
       <c r="E11">
+        <v>27.27272727272727</v>
+      </c>
+      <c r="F11">
+        <v>-6.060606060606062</v>
+      </c>
+      <c r="G11">
+        <v>72.72727272727273</v>
+      </c>
+      <c r="H11">
+        <v>6.060606060606062</v>
+      </c>
+      <c r="I11">
         <v>3</v>
       </c>
-      <c r="F11">
+      <c r="J11">
         <v>0.2727272727272727</v>
       </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-      <c r="H11">
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
         <v>0.09090909090909091</v>
       </c>
-      <c r="I11">
+      <c r="M11">
         <v>4</v>
       </c>
-      <c r="J11">
+      <c r="N11">
         <v>0.3636363636363636</v>
       </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-      <c r="N11">
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
         <v>5</v>
       </c>
-      <c r="O11">
-        <v>0.625</v>
-      </c>
-      <c r="P11">
-        <v>1.571428571428572</v>
-      </c>
-      <c r="Q11">
-        <v>1.571428571428572</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="S11">
+        <v>62.5</v>
+      </c>
+      <c r="T11">
+        <v>11.22448979591837</v>
+      </c>
+      <c r="U11">
+        <v>11.22448979591837</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21">
       <c r="A12" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B12">
         <v>6</v>
@@ -1956,16 +2304,16 @@
         <v>14</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>9.523809523809518</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>57.14285714285715</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>-9.523809523809526</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -1983,21 +2331,33 @@
         <v>0</v>
       </c>
       <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
         <v>3</v>
       </c>
-      <c r="O12">
-        <v>0.375</v>
-      </c>
-      <c r="P12">
-        <v>-0.4285714285714284</v>
-      </c>
-      <c r="Q12">
-        <v>-0.4285714285714284</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="S12">
+        <v>37.5</v>
+      </c>
+      <c r="T12">
+        <v>-3.061224489795916</v>
+      </c>
+      <c r="U12">
+        <v>-3.061224489795916</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21">
       <c r="A13" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B13">
         <v>2</v>
@@ -2009,16 +2369,16 @@
         <v>9</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>22.22222222222222</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>77.77777777777777</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>11.1111111111111</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -2036,21 +2396,33 @@
         <v>0</v>
       </c>
       <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
         <v>3</v>
       </c>
-      <c r="O13">
-        <v>0.4285714285714285</v>
-      </c>
-      <c r="P13">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="S13">
+        <v>42.85714285714285</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21">
       <c r="A14" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B14">
         <v>2</v>
@@ -2062,16 +2434,16 @@
         <v>8</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>-8.333333333333336</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>8.333333333333329</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -2089,21 +2461,33 @@
         <v>0</v>
       </c>
       <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
         <v>3</v>
       </c>
-      <c r="O14">
-        <v>0.5</v>
-      </c>
-      <c r="P14">
-        <v>0.4285714285714287</v>
-      </c>
-      <c r="Q14">
-        <v>0.4285714285714287</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="S14">
+        <v>50</v>
+      </c>
+      <c r="T14">
+        <v>3.06122448979592</v>
+      </c>
+      <c r="U14">
+        <v>3.06122448979592</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21">
       <c r="A15" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B15">
         <v>2</v>
@@ -2115,16 +2499,16 @@
         <v>7</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>-4.761904761904763</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>4.761904761904759</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -2148,15 +2532,27 @@
         <v>0</v>
       </c>
       <c r="P15">
-        <v>-2.142857142857143</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>-2.142857142857143</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>-15.30612244897959</v>
+      </c>
+      <c r="U15">
+        <v>-15.30612244897959</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21">
       <c r="A16" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -2171,13 +2567,13 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>-33.33333333333334</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -2195,21 +2591,33 @@
         <v>0</v>
       </c>
       <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
         <v>3</v>
       </c>
-      <c r="O16">
-        <v>0.4285714285714285</v>
-      </c>
-      <c r="P16">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+      <c r="S16">
+        <v>42.85714285714285</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B17">
         <v>7</v>
@@ -2221,18 +2629,24 @@
         <v>21</v>
       </c>
       <c r="E17">
+        <v>33.78739778739778</v>
+      </c>
+      <c r="G17">
+        <v>66.21260221260222</v>
+      </c>
+      <c r="I17">
         <v>6</v>
       </c>
-      <c r="G17">
+      <c r="K17">
         <v>6</v>
       </c>
-      <c r="I17">
+      <c r="M17">
         <v>12</v>
       </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
-      <c r="N17">
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="R17">
         <v>6</v>
       </c>
     </row>
@@ -2243,13 +2657,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q17"/>
+  <dimension ref="A1:U17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:21">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2298,10 +2712,22 @@
       <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21">
       <c r="A2" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B2">
         <v>5</v>
@@ -2313,48 +2739,60 @@
         <v>10</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>10.8695652173913</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="H2">
+        <v>-10.8695652173913</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
         <v>0.1</v>
       </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-      <c r="J2">
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2">
         <v>0.1</v>
       </c>
-      <c r="K2">
+      <c r="O2">
         <v>2</v>
       </c>
-      <c r="L2">
-        <v>0.4</v>
-      </c>
-      <c r="M2">
-        <v>0.8888888888888891</v>
-      </c>
-      <c r="N2">
+      <c r="P2">
+        <v>40</v>
+      </c>
+      <c r="Q2">
+        <v>9.876543209876543</v>
+      </c>
+      <c r="R2">
         <v>2</v>
       </c>
-      <c r="O2">
-        <v>0.4</v>
-      </c>
-      <c r="P2">
-        <v>-0.1428571428571426</v>
-      </c>
-      <c r="Q2">
-        <v>0.7460317460317465</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="S2">
+        <v>40</v>
+      </c>
+      <c r="T2">
+        <v>-1.020408163265305</v>
+      </c>
+      <c r="U2">
+        <v>8.856135046611238</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
       <c r="A3" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B3">
         <v>4</v>
@@ -2366,48 +2804,60 @@
         <v>7</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>57.14285714285715</v>
       </c>
       <c r="F3">
+        <v>18.01242236024845</v>
+      </c>
+      <c r="G3">
+        <v>42.85714285714285</v>
+      </c>
+      <c r="H3">
+        <v>-18.01242236024845</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
         <v>0.1428571428571428</v>
       </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3">
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
         <v>0.1428571428571428</v>
       </c>
-      <c r="I3">
+      <c r="M3">
         <v>2</v>
       </c>
-      <c r="J3">
+      <c r="N3">
         <v>0.2857142857142857</v>
       </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3">
-        <v>0.25</v>
-      </c>
-      <c r="M3">
-        <v>0.1111111111111112</v>
-      </c>
-      <c r="N3">
-        <v>1</v>
-      </c>
       <c r="O3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="P3">
-        <v>-0.2857142857142857</v>
+        <v>25</v>
       </c>
       <c r="Q3">
-        <v>-0.1746031746031745</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>1.234567901234568</v>
+      </c>
+      <c r="R3">
+        <v>1</v>
+      </c>
+      <c r="S3">
+        <v>33.33333333333334</v>
+      </c>
+      <c r="T3">
+        <v>-2.040816326530611</v>
+      </c>
+      <c r="U3">
+        <v>-0.8062484252960427</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B4">
         <v>5</v>
@@ -2419,16 +2869,16 @@
         <v>12</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>41.66666666666666</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>2.536231884057969</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>58.33333333333334</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>-2.536231884057969</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -2437,30 +2887,42 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>-0.111111111111111</v>
+        <v>0</v>
       </c>
       <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <v>20</v>
+      </c>
+      <c r="Q4">
+        <v>-1.234567901234567</v>
+      </c>
+      <c r="R4">
         <v>3</v>
       </c>
-      <c r="O4">
-        <v>0.4285714285714285</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>-0.111111111111111</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="S4">
+        <v>42.85714285714285</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>-1.234567901234567</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21">
       <c r="A5" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B5">
         <v>3</v>
@@ -2472,16 +2934,16 @@
         <v>11</v>
       </c>
       <c r="E5">
-        <v>4</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="F5">
-        <v>0.3636363636363636</v>
+        <v>-11.85770750988142</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>72.72727272727273</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>11.85770750988143</v>
       </c>
       <c r="I5">
         <v>4</v>
@@ -2490,30 +2952,42 @@
         <v>0.3636363636363636</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.3333333333333333</v>
+        <v>4</v>
       </c>
       <c r="N5">
+        <v>0.3636363636363636</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <v>33.33333333333334</v>
+      </c>
+      <c r="Q5">
+        <v>3.703703703703705</v>
+      </c>
+      <c r="R5">
         <v>4</v>
       </c>
-      <c r="O5">
-        <v>0.5</v>
-      </c>
-      <c r="P5">
-        <v>0.5714285714285716</v>
-      </c>
-      <c r="Q5">
-        <v>0.9047619047619049</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="S5">
+        <v>50</v>
+      </c>
+      <c r="T5">
+        <v>4.081632653061226</v>
+      </c>
+      <c r="U5">
+        <v>7.785336356764931</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21">
       <c r="A6" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B6">
         <v>6</v>
@@ -2525,16 +2999,16 @@
         <v>13</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>46.15384615384615</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>7.023411371237458</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>53.84615384615385</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>-7.023411371237458</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -2543,30 +3017,42 @@
         <v>0</v>
       </c>
       <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
         <v>2</v>
       </c>
-      <c r="L6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M6">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="N6">
+      <c r="P6">
+        <v>33.33333333333334</v>
+      </c>
+      <c r="Q6">
+        <v>7.407407407407409</v>
+      </c>
+      <c r="R6">
         <v>4</v>
       </c>
-      <c r="O6">
-        <v>0.5714285714285714</v>
-      </c>
-      <c r="P6">
-        <v>1</v>
-      </c>
-      <c r="Q6">
-        <v>1.666666666666667</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="S6">
+        <v>57.14285714285715</v>
+      </c>
+      <c r="T6">
+        <v>7.142857142857146</v>
+      </c>
+      <c r="U6">
+        <v>14.55026455026455</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21">
       <c r="A7" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B7">
         <v>5</v>
@@ -2578,16 +3064,16 @@
         <v>10</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="F7">
-        <v>0.1</v>
+        <v>10.8695652173913</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>-10.8695652173913</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -2596,30 +3082,42 @@
         <v>0.1</v>
       </c>
       <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <v>0.1</v>
+      </c>
+      <c r="O7">
         <v>2</v>
       </c>
-      <c r="L7">
-        <v>0.4</v>
-      </c>
-      <c r="M7">
-        <v>0.8888888888888891</v>
-      </c>
-      <c r="N7">
+      <c r="P7">
+        <v>40</v>
+      </c>
+      <c r="Q7">
+        <v>9.876543209876543</v>
+      </c>
+      <c r="R7">
         <v>3</v>
       </c>
-      <c r="O7">
-        <v>0.6</v>
-      </c>
-      <c r="P7">
-        <v>0.8571428571428572</v>
-      </c>
-      <c r="Q7">
-        <v>1.746031746031746</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="S7">
+        <v>60</v>
+      </c>
+      <c r="T7">
+        <v>6.122448979591837</v>
+      </c>
+      <c r="U7">
+        <v>15.99899218946838</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21">
       <c r="A8" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -2631,16 +3129,16 @@
         <v>14</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="F8">
-        <v>0.07142857142857142</v>
+        <v>10.8695652173913</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>-10.8695652173913</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -2649,30 +3147,42 @@
         <v>0.07142857142857142</v>
       </c>
       <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8">
+        <v>0.07142857142857142</v>
+      </c>
+      <c r="O8">
         <v>2</v>
       </c>
-      <c r="L8">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="M8">
-        <v>0.4444444444444444</v>
-      </c>
-      <c r="N8">
+      <c r="P8">
+        <v>28.57142857142857</v>
+      </c>
+      <c r="Q8">
+        <v>4.938271604938273</v>
+      </c>
+      <c r="R8">
         <v>3</v>
       </c>
-      <c r="O8">
-        <v>0.4285714285714285</v>
-      </c>
-      <c r="P8">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>0.4444444444444444</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="S8">
+        <v>42.85714285714285</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>4.938271604938273</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21">
       <c r="A9" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B9">
         <v>5</v>
@@ -2684,16 +3194,16 @@
         <v>16</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>31.25</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>-7.880434782608695</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>68.75</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>7.880434782608695</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -2702,30 +3212,42 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>-0.111111111111111</v>
+        <v>0</v>
       </c>
       <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>1</v>
+      </c>
+      <c r="P9">
+        <v>20</v>
+      </c>
+      <c r="Q9">
+        <v>-1.234567901234567</v>
+      </c>
+      <c r="R9">
         <v>4</v>
       </c>
-      <c r="O9">
-        <v>0.3636363636363636</v>
-      </c>
-      <c r="P9">
-        <v>-0.714285714285714</v>
-      </c>
-      <c r="Q9">
-        <v>-0.8253968253968249</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="S9">
+        <v>36.36363636363637</v>
+      </c>
+      <c r="T9">
+        <v>-5.102040816326526</v>
+      </c>
+      <c r="U9">
+        <v>-6.336608717561093</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21">
       <c r="A10" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B10">
         <v>2</v>
@@ -2737,16 +3259,16 @@
         <v>7</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>-10.55900621118012</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>10.55900621118013</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -2761,24 +3283,36 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>-0.4444444444444444</v>
+        <v>0</v>
       </c>
       <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>-4.938271604938271</v>
+      </c>
+      <c r="R10">
         <v>2</v>
       </c>
-      <c r="O10">
-        <v>0.4</v>
-      </c>
-      <c r="P10">
-        <v>-0.1428571428571426</v>
-      </c>
-      <c r="Q10">
-        <v>-0.587301587301587</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="S10">
+        <v>40</v>
+      </c>
+      <c r="T10">
+        <v>-1.020408163265305</v>
+      </c>
+      <c r="U10">
+        <v>-5.958679768203576</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21">
       <c r="A11" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B11">
         <v>3</v>
@@ -2790,48 +3324,60 @@
         <v>13</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="F11">
+        <v>-16.05351170568562</v>
+      </c>
+      <c r="G11">
+        <v>76.92307692307692</v>
+      </c>
+      <c r="H11">
+        <v>16.05351170568562</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
         <v>0.07692307692307693</v>
       </c>
-      <c r="G11">
+      <c r="K11">
         <v>3</v>
       </c>
-      <c r="H11">
+      <c r="L11">
         <v>0.2307692307692308</v>
       </c>
-      <c r="I11">
+      <c r="M11">
         <v>4</v>
       </c>
-      <c r="J11">
+      <c r="N11">
         <v>0.3076923076923077</v>
       </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-      <c r="M11">
-        <v>-0.6666666666666666</v>
-      </c>
-      <c r="N11">
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>-7.407407407407407</v>
+      </c>
+      <c r="R11">
         <v>4</v>
       </c>
-      <c r="O11">
-        <v>0.4</v>
-      </c>
-      <c r="P11">
-        <v>-0.2857142857142853</v>
-      </c>
-      <c r="Q11">
-        <v>-0.9523809523809519</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="S11">
+        <v>40</v>
+      </c>
+      <c r="T11">
+        <v>-2.04081632653061</v>
+      </c>
+      <c r="U11">
+        <v>-9.448223733938017</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21">
       <c r="A12" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B12">
         <v>5</v>
@@ -2843,16 +3389,16 @@
         <v>13</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>38.46153846153846</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>-0.6688963210702354</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>61.53846153846154</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.6688963210702354</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -2867,24 +3413,36 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>-1.111111111111111</v>
+        <v>0</v>
       </c>
       <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>-12.34567901234568</v>
+      </c>
+      <c r="R12">
         <v>3</v>
       </c>
-      <c r="O12">
-        <v>0.375</v>
-      </c>
-      <c r="P12">
-        <v>-0.4285714285714284</v>
-      </c>
-      <c r="Q12">
-        <v>-1.53968253968254</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="S12">
+        <v>37.5</v>
+      </c>
+      <c r="T12">
+        <v>-3.061224489795916</v>
+      </c>
+      <c r="U12">
+        <v>-15.4069035021416</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21">
       <c r="A13" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B13">
         <v>3</v>
@@ -2896,16 +3454,16 @@
         <v>6</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>10.8695652173913</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>-10.8695652173913</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -2920,24 +3478,36 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>-0.6666666666666666</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>-0.2857142857142857</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>-0.9523809523809523</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>-7.407407407407407</v>
+      </c>
+      <c r="R13">
+        <v>1</v>
+      </c>
+      <c r="S13">
+        <v>33.33333333333334</v>
+      </c>
+      <c r="T13">
+        <v>-2.040816326530611</v>
+      </c>
+      <c r="U13">
+        <v>-9.448223733938018</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B14">
         <v>3</v>
@@ -2949,16 +3519,16 @@
         <v>9</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>33.33333333333334</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>-5.79710144927536</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>66.66666666666667</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>5.797101449275367</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -2967,30 +3537,42 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0.1666666666666667</v>
+        <v>1</v>
       </c>
       <c r="P14">
-        <v>-1.571428571428571</v>
+        <v>33.33333333333334</v>
       </c>
       <c r="Q14">
-        <v>-1.238095238095238</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>3.703703703703705</v>
+      </c>
+      <c r="R14">
+        <v>1</v>
+      </c>
+      <c r="S14">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="T14">
+        <v>-11.22448979591836</v>
+      </c>
+      <c r="U14">
+        <v>-7.52078609221466</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B15">
         <v>5</v>
@@ -3002,48 +3584,60 @@
         <v>11</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>45.45454545454545</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>6.324110671936758</v>
       </c>
       <c r="G15">
+        <v>54.54545454545455</v>
+      </c>
+      <c r="H15">
+        <v>-6.324110671936758</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
         <v>3</v>
       </c>
-      <c r="H15">
+      <c r="L15">
         <v>0.2727272727272727</v>
       </c>
-      <c r="I15">
+      <c r="M15">
         <v>3</v>
       </c>
-      <c r="J15">
+      <c r="N15">
         <v>0.2727272727272727</v>
       </c>
-      <c r="K15">
-        <v>1</v>
-      </c>
-      <c r="L15">
-        <v>0.2</v>
-      </c>
-      <c r="M15">
-        <v>-0.111111111111111</v>
-      </c>
-      <c r="N15">
+      <c r="O15">
+        <v>1</v>
+      </c>
+      <c r="P15">
+        <v>20</v>
+      </c>
+      <c r="Q15">
+        <v>-1.234567901234567</v>
+      </c>
+      <c r="R15">
         <v>4</v>
       </c>
-      <c r="O15">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="P15">
-        <v>1.428571428571428</v>
-      </c>
-      <c r="Q15">
-        <v>1.317460317460317</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="S15">
+        <v>66.66666666666667</v>
+      </c>
+      <c r="T15">
+        <v>10.20408163265306</v>
+      </c>
+      <c r="U15">
+        <v>8.969513731418495</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21">
       <c r="A16" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B16">
         <v>2</v>
@@ -3055,16 +3649,16 @@
         <v>9</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>22.22222222222222</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>-16.90821256038647</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>77.77777777777777</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>16.90821256038647</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -3079,24 +3673,36 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>-0.4444444444444444</v>
+        <v>0</v>
       </c>
       <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>-4.938271604938271</v>
+      </c>
+      <c r="R16">
         <v>3</v>
       </c>
-      <c r="O16">
-        <v>0.4285714285714285</v>
-      </c>
-      <c r="P16">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>-0.4444444444444444</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+      <c r="S16">
+        <v>42.85714285714285</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>-4.938271604938271</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B17">
         <v>9</v>
@@ -3108,18 +3714,24 @@
         <v>23</v>
       </c>
       <c r="E17">
+        <v>39.64040589040589</v>
+      </c>
+      <c r="G17">
+        <v>60.3595941095941</v>
+      </c>
+      <c r="I17">
         <v>8</v>
       </c>
-      <c r="G17">
+      <c r="K17">
         <v>8</v>
       </c>
-      <c r="I17">
+      <c r="M17">
         <v>16</v>
       </c>
-      <c r="K17">
+      <c r="O17">
         <v>2</v>
       </c>
-      <c r="N17">
+      <c r="R17">
         <v>6</v>
       </c>
     </row>
